--- a/Assets/Notes/Notes.xlsx
+++ b/Assets/Notes/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkill\Documents\Mathnado\Mathnado 3D\Assets\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkill\Documents\Unity\Mathnado 3D\Assets\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B02F985-BAD7-4DF4-9832-BA04297CF52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6BA668-BA44-4E14-846A-5A6429F54CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="10600" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{4B92E8FE-F914-45EA-8955-2CC988840206}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" tabRatio="840" activeTab="5" xr2:uid="{4B92E8FE-F914-45EA-8955-2CC988840206}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="House Placement" sheetId="3" r:id="rId3"/>
     <sheet name="Game Type-Custom Grid" sheetId="4" r:id="rId4"/>
     <sheet name="Characters" sheetId="5" r:id="rId5"/>
+    <sheet name="Gameplay UI" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="661">
   <si>
     <t>Last part one</t>
   </si>
@@ -1971,9 +1972,6 @@
     <t>Snapping Turtle</t>
   </si>
   <si>
-    <t>Snowl Owl</t>
-  </si>
-  <si>
     <t>Squid</t>
   </si>
   <si>
@@ -1983,9 +1981,6 @@
     <t>Tapir</t>
   </si>
   <si>
-    <t>Tanmanian Devil</t>
-  </si>
-  <si>
     <t>Tiger</t>
   </si>
   <si>
@@ -2002,6 +1997,30 @@
   </si>
   <si>
     <t>Speed (4)</t>
+  </si>
+  <si>
+    <t>Tasmanian Devil</t>
+  </si>
+  <si>
+    <t>Snow Owl</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Duration-Duration</t>
+  </si>
+  <si>
+    <t>Question-Duration</t>
+  </si>
+  <si>
+    <t>Speed Play</t>
+  </si>
+  <si>
+    <t>Center Circle</t>
+  </si>
+  <si>
+    <t>Side Bars</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2254,15 +2273,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2273,6 +2291,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2594,12 +2630,12 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="17.59765625" customWidth="1"/>
+    <col min="1" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2616,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2669,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2686,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2667,7 +2703,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2720,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2701,7 +2737,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2718,7 +2754,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +2771,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +2788,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2769,7 +2805,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2786,7 +2822,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2803,7 +2839,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2820,7 +2856,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2837,7 +2873,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2854,7 +2890,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2871,7 +2907,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2888,7 +2924,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2905,7 +2941,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2922,7 +2958,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2939,7 +2975,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2956,7 +2992,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2973,7 +3009,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -2990,7 +3026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3007,7 +3043,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -3024,7 +3060,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -3041,7 +3077,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -3056,7 +3092,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -3071,7 +3107,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -3086,7 +3122,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -3101,7 +3137,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -3116,7 +3152,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -3131,7 +3167,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -3146,7 +3182,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -3161,7 +3197,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -3176,7 +3212,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -3191,7 +3227,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3242,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -3221,7 +3257,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -3236,7 +3272,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -3251,7 +3287,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -3266,7 +3302,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -3281,7 +3317,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -3296,7 +3332,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -3311,7 +3347,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -3326,7 +3362,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -3341,7 +3377,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -3356,7 +3392,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -3371,7 +3407,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -3386,7 +3422,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -3401,7 +3437,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -3416,7 +3452,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -3431,7 +3467,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -3446,7 +3482,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -3461,7 +3497,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3476,7 +3512,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -3491,7 +3527,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -3506,7 +3542,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
@@ -3521,7 +3557,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -3536,7 +3572,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -3551,7 +3587,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -3566,7 +3602,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -3581,7 +3617,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -3596,7 +3632,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -3611,7 +3647,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -3626,7 +3662,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -3641,7 +3677,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -3656,7 +3692,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -3671,7 +3707,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -3686,7 +3722,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -3701,7 +3737,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -3716,7 +3752,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -3731,7 +3767,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -3746,7 +3782,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -3761,7 +3797,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -3776,7 +3812,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -3791,7 +3827,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -3806,7 +3842,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -3821,7 +3857,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -3836,7 +3872,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -3851,7 +3887,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -3866,7 +3902,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
@@ -3881,7 +3917,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -3896,7 +3932,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -3911,7 +3947,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
@@ -3926,7 +3962,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -3941,7 +3977,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -3956,7 +3992,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -3971,7 +4007,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -3986,7 +4022,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -4001,7 +4037,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -4016,7 +4052,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
@@ -4031,7 +4067,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
@@ -4046,7 +4082,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -4061,7 +4097,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -4076,7 +4112,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -4091,7 +4127,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -4106,7 +4142,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
@@ -4121,7 +4157,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -4136,7 +4172,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -4165,17 +4201,17 @@
       <selection activeCell="L33" sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.4" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="9.1328125" style="3"/>
-    <col min="5" max="5" width="2.3984375" style="3" customWidth="1"/>
-    <col min="6" max="8" width="9.1328125" style="3"/>
-    <col min="9" max="9" width="2.3984375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="21.85546875" style="3" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="2.42578125" style="3" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>394</v>
       </c>
@@ -4183,7 +4219,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>396</v>
       </c>
@@ -4191,7 +4227,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>398</v>
@@ -4203,7 +4239,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>399</v>
       </c>
@@ -4217,7 +4253,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>400</v>
       </c>
@@ -4231,7 +4267,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>401</v>
       </c>
@@ -4245,7 +4281,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>402</v>
       </c>
@@ -4259,7 +4295,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>403</v>
       </c>
@@ -4273,7 +4309,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>404</v>
       </c>
@@ -4305,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>405</v>
       </c>
@@ -4337,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>406</v>
       </c>
@@ -4351,7 +4387,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>407</v>
@@ -4363,7 +4399,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>399</v>
       </c>
@@ -4377,7 +4413,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>400</v>
       </c>
@@ -4391,7 +4427,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>401</v>
       </c>
@@ -4405,7 +4441,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>402</v>
       </c>
@@ -4419,7 +4455,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>403</v>
       </c>
@@ -4433,7 +4469,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>404</v>
       </c>
@@ -4465,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>405</v>
       </c>
@@ -4497,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>406</v>
       </c>
@@ -4511,7 +4547,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>408</v>
@@ -4520,7 +4556,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>399</v>
       </c>
@@ -4531,7 +4567,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>400</v>
       </c>
@@ -4542,7 +4578,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>401</v>
       </c>
@@ -4553,7 +4589,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>402</v>
       </c>
@@ -4564,7 +4600,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>403</v>
       </c>
@@ -4575,7 +4611,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>404</v>
       </c>
@@ -4598,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>405</v>
       </c>
@@ -4621,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>406</v>
       </c>
@@ -4632,7 +4668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>1</v>
       </c>
@@ -4640,7 +4676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>2</v>
       </c>
@@ -4648,7 +4684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>3</v>
       </c>
@@ -4656,7 +4692,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>4</v>
       </c>
@@ -4664,7 +4700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>5</v>
       </c>
@@ -4672,7 +4708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>6</v>
       </c>
@@ -4680,7 +4716,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>7</v>
       </c>
@@ -4688,7 +4724,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>8</v>
       </c>
@@ -4696,7 +4732,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>9</v>
       </c>
@@ -4704,7 +4740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>10</v>
       </c>
@@ -4726,33 +4762,33 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.86328125" style="5" customWidth="1"/>
-    <col min="2" max="15" width="5.265625" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="9.1328125" style="5"/>
+    <col min="1" max="1" width="6.85546875" style="5" customWidth="1"/>
+    <col min="2" max="15" width="5.28515625" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-    </row>
-    <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4775,7 +4811,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -4802,7 +4838,7 @@
       <c r="N3" s="6"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -4833,7 +4869,7 @@
       </c>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -4868,7 +4904,7 @@
       </c>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -4907,7 +4943,7 @@
       </c>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="11">
         <v>0</v>
@@ -4965,23 +5001,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755E7C51-B904-4003-A52C-0843E6B37680}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="A1:G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.06640625" style="16" customWidth="1"/>
-    <col min="2" max="7" width="8.73046875" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="16"/>
+    <col min="1" max="1" width="18" style="16" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>449</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>450</v>
@@ -4990,13 +5026,13 @@
         <v>451</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>441</v>
       </c>
@@ -5019,7 +5055,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>442</v>
       </c>
@@ -5036,7 +5072,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>443</v>
       </c>
@@ -5051,7 +5087,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>444</v>
       </c>
@@ -5066,7 +5102,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>445</v>
       </c>
@@ -5089,7 +5125,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>446</v>
       </c>
@@ -5112,7 +5148,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>447</v>
       </c>
@@ -5145,2358 +5181,2358 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB737A-42DA-4FA4-A8D1-C38D9FEAD34B}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.796875" style="18" customWidth="1"/>
-    <col min="2" max="2" width="6.796875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="2.3984375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.06640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="1.59765625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="17.19921875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="1.59765625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="1.59765625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="1.59765625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="17.19921875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="1.59765625" style="18" customWidth="1"/>
-    <col min="14" max="15" width="17.19921875" style="18" customWidth="1"/>
-    <col min="16" max="16384" width="9.06640625" style="18"/>
+    <col min="1" max="1" width="19.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16" style="16" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="1.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.5703125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="16" customWidth="1"/>
+    <col min="14" max="15" width="17.140625" style="16" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>604</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>0.9</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0.95</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.95</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>1.25</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.95</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>0.85</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>0.7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>0.6</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="18" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="18" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>0.7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="O11" s="18" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>0.8</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="18" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>1.25</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="18" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>1.25</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="O14" s="18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>0.9</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="O15" s="18" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>0.7</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="O16" s="18" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>0.8</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="O17" s="18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>1</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="L18" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="O18" s="18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>1</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="L20" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="O20" s="18" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>0.8</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="L21" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="O21" s="18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>0.6</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="N22" s="19" t="s">
+      <c r="N22" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="O22" s="18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>0.7</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="J23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="18" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>1</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="N24" s="19" t="s">
+      <c r="N24" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="O24" s="18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="20">
         <v>1</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="N25" s="19" t="s">
+      <c r="N25" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="O25" s="18" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>0.8</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L26" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="O26" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="N27" s="19" t="s">
+      <c r="N27" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="O27" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>0.6</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="J28" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="N28" s="19" t="s">
+      <c r="N28" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="O28" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="L29" s="18" t="s">
+      <c r="L29" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="N29" s="19" t="s">
+      <c r="N29" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="O29" s="19" t="s">
+      <c r="O29" s="18" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>0.85</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L30" s="18" t="s">
+      <c r="L30" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="18" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="20">
         <v>1.5</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="L31" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="N31" s="19" t="s">
+      <c r="N31" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="O31" s="19" t="s">
+      <c r="O31" s="18" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>0.65</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="J32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="20">
         <v>1</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="N33" s="19" t="s">
+      <c r="N33" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="O33" s="19" t="s">
+      <c r="O33" s="18" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>0.85</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="N34" s="19" t="s">
+      <c r="N34" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="O34" s="19" t="s">
+      <c r="O34" s="18" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="20">
         <v>1.4</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="N35" s="19" t="s">
+      <c r="N35" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="19" t="s">
+      <c r="O35" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>0.7</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L36" s="18" t="s">
+      <c r="L36" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="20">
         <v>1</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="J37" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="N37" s="19" t="s">
+      <c r="N37" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="O37" s="19" t="s">
+      <c r="O37" s="18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="20">
         <v>0.7</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="L38" s="18" t="s">
+      <c r="L38" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="N38" s="19" t="s">
+      <c r="N38" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="O38" s="19" t="s">
+      <c r="O38" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="B39" s="21">
+      <c r="B39" s="20">
         <v>0.95</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L39" s="18" t="s">
+      <c r="L39" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="N39" s="19" t="s">
+      <c r="N39" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="O39" s="19" t="s">
+      <c r="O39" s="18" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="20">
         <v>1</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="L40" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="N40" s="19" t="s">
+      <c r="N40" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="O40" s="19" t="s">
+      <c r="O40" s="18" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="20">
         <v>1</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="J41" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L41" s="18" t="s">
+      <c r="L41" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="N41" s="19" t="s">
+      <c r="N41" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="O41" s="19" t="s">
+      <c r="O41" s="18" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="20">
         <v>0.85</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J42" s="19" t="s">
+      <c r="J42" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="L42" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="N42" s="19" t="s">
+      <c r="N42" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="O42" s="19" t="s">
+      <c r="O42" s="18" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="20">
         <v>0.6</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="L43" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="N43" s="19" t="s">
+      <c r="N43" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="O43" s="19" t="s">
+      <c r="O43" s="18" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="20">
         <v>1.4</v>
       </c>
-      <c r="H44" s="19" t="s">
+      <c r="H44" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="J44" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="L44" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="N44" s="19" t="s">
+      <c r="N44" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="O44" s="19" t="s">
+      <c r="O44" s="18" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="20">
         <v>1</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="J45" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="N45" s="19" t="s">
+      <c r="N45" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="O45" s="19" t="s">
+      <c r="O45" s="18" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A46" s="18" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>1.35</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="J46" s="19" t="s">
+      <c r="J46" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="L46" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="N46" s="19" t="s">
+      <c r="N46" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="O46" s="19" t="s">
+      <c r="O46" s="18" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="20">
         <v>1</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="J47" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="L47" s="18" t="s">
+      <c r="L47" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="N47" s="19" t="s">
+      <c r="N47" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="O47" s="19" t="s">
+      <c r="O47" s="18" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="18" t="s">
-        <v>652</v>
-      </c>
-      <c r="B48" s="21">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="B48" s="20">
         <v>0.6</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="J48" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="L48" s="18" t="s">
+      <c r="L48" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="N48" s="19" t="s">
+      <c r="N48" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="O48" s="19" t="s">
+      <c r="O48" s="18" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="20">
         <v>1.4</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H49" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="J49" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="L49" s="18" t="s">
+      <c r="L49" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="N49" s="19" t="s">
+      <c r="N49" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="O49" s="19" t="s">
+      <c r="O49" s="18" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="20">
         <v>0.5</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="J50" s="19" t="s">
+      <c r="J50" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="L50" s="18" t="s">
+      <c r="L50" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="N50" s="19" t="s">
+      <c r="N50" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="O50" s="19" t="s">
+      <c r="O50" s="18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A51" s="18" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="20">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H51" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="J51" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="L51" s="18" t="s">
+      <c r="L51" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="N51" s="19" t="s">
+      <c r="N51" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="O51" s="19" t="s">
+      <c r="O51" s="18" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A52" s="18" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="20">
         <v>1</v>
       </c>
-      <c r="H52" s="19" t="s">
+      <c r="H52" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="L52" s="18" t="s">
+      <c r="L52" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="N52" s="19" t="s">
+      <c r="N52" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="O52" s="19" t="s">
+      <c r="O52" s="18" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A53" s="18" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="20">
         <v>0.7</v>
       </c>
-      <c r="H53" s="19" t="s">
+      <c r="H53" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="L53" s="18" t="s">
+      <c r="L53" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="N53" s="19" t="s">
+      <c r="N53" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="O53" s="19" t="s">
+      <c r="O53" s="18" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A54" s="18" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="20">
         <v>0.9</v>
       </c>
-      <c r="H54" s="19" t="s">
+      <c r="H54" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="19" t="s">
+      <c r="J54" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="L54" s="18" t="s">
+      <c r="L54" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N54" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="O54" s="19" t="s">
+      <c r="O54" s="18" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A55" s="18" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="20">
         <v>1</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="J55" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="L55" s="18" t="s">
+      <c r="L55" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="N55" s="19" t="s">
+      <c r="N55" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="O55" s="19" t="s">
+      <c r="O55" s="18" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="20">
         <v>0.8</v>
       </c>
-      <c r="H56" s="19" t="s">
+      <c r="H56" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="J56" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="L56" s="18" t="s">
+      <c r="L56" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="N56" s="19" t="s">
+      <c r="N56" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="O56" s="19" t="s">
+      <c r="O56" s="18" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A57" s="18" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="20">
         <v>0.75</v>
       </c>
-      <c r="H57" s="19" t="s">
+      <c r="H57" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J57" s="19" t="s">
+      <c r="J57" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="L57" s="18" t="s">
+      <c r="L57" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="N57" s="19" t="s">
+      <c r="N57" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="O57" s="19" t="s">
+      <c r="O57" s="18" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A58" s="18" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="20">
         <v>1</v>
       </c>
-      <c r="H58" s="19" t="s">
+      <c r="H58" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="L58" s="18" t="s">
+      <c r="L58" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="N58" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="O58" s="19" t="s">
+      <c r="O58" s="18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A59" s="18" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="20">
         <v>1</v>
       </c>
-      <c r="H59" s="19" t="s">
+      <c r="H59" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="J59" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="L59" s="18" t="s">
+      <c r="L59" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="N59" s="19" t="s">
+      <c r="N59" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="O59" s="19" t="s">
+      <c r="O59" s="18" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A60" s="18" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="20">
         <v>1</v>
       </c>
-      <c r="H60" s="19" t="s">
+      <c r="H60" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="J60" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="L60" s="18" t="s">
+      <c r="L60" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="N60" s="19" t="s">
+      <c r="N60" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="O60" s="19" t="s">
+      <c r="O60" s="18" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A61" s="18" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="20">
         <v>0.65</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J61" s="19" t="s">
+      <c r="J61" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="L61" s="18" t="s">
+      <c r="L61" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="N61" s="19" t="s">
+      <c r="N61" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="O61" s="19" t="s">
+      <c r="O61" s="18" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A62" s="18" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="20">
         <v>0.75</v>
       </c>
-      <c r="H62" s="19" t="s">
+      <c r="H62" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J62" s="19" t="s">
+      <c r="J62" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="L62" s="18" t="s">
+      <c r="L62" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="N62" s="19" t="s">
+      <c r="N62" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="O62" s="19" t="s">
+      <c r="O62" s="18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A63" s="18" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="20">
         <v>0.95</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="L63" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="N63" s="19" t="s">
+      <c r="N63" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="O63" s="19" t="s">
+      <c r="O63" s="18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A64" s="18" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="20">
         <v>1</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="J64" s="19" t="s">
+      <c r="J64" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="L64" s="18" t="s">
+      <c r="L64" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="N64" s="19" t="s">
+      <c r="N64" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="O64" s="19" t="s">
+      <c r="O64" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A65" s="18" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="20">
         <v>0.65</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="L65" s="18" t="s">
+      <c r="L65" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="N65" s="19" t="s">
+      <c r="N65" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="O65" s="19" t="s">
+      <c r="O65" s="18" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A66" s="18" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="20">
         <v>1</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="L66" s="18" t="s">
+      <c r="L66" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="N66" s="19" t="s">
+      <c r="N66" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="O66" s="19" t="s">
+      <c r="O66" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A67" s="18" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="20">
         <v>1</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="L67" s="18" t="s">
+      <c r="L67" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="N67" s="19" t="s">
+      <c r="N67" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="O67" s="19" t="s">
+      <c r="O67" s="18" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A68" s="18" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B68" s="20">
         <v>1</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J68" s="19" t="s">
+      <c r="J68" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="L68" s="18" t="s">
+      <c r="L68" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="N68" s="19" t="s">
+      <c r="N68" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="O68" s="19" t="s">
+      <c r="O68" s="18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A69" s="18" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B69" s="20">
         <v>0.8</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="J69" s="19" t="s">
+      <c r="J69" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="L69" s="18" t="s">
+      <c r="L69" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="N69" s="19" t="s">
+      <c r="N69" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="O69" s="19" t="s">
+      <c r="O69" s="18" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A70" s="18" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="20">
         <v>0.8</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="L70" s="18" t="s">
+      <c r="L70" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="O70" s="19" t="s">
+      <c r="O70" s="18" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A71" s="18" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="20">
         <v>0.6</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="L71" s="18" t="s">
+      <c r="L71" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="N71" s="19" t="s">
+      <c r="N71" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="O71" s="19" t="s">
+      <c r="O71" s="18" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A72" s="18" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="20">
         <v>0.7</v>
       </c>
-      <c r="H72" s="19" t="s">
+      <c r="H72" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="L72" s="18" t="s">
+      <c r="L72" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="N72" s="19" t="s">
+      <c r="N72" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="O72" s="19" t="s">
+      <c r="O72" s="18" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="18" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="20">
         <v>0.75</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J73" s="19" t="s">
+      <c r="J73" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="L73" s="18" t="s">
+      <c r="L73" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19" t="s">
+      <c r="N73" s="18"/>
+      <c r="O73" s="18" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A74" s="18" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="20">
         <v>0.85</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J74" s="19" t="s">
+      <c r="J74" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="L74" s="18" t="s">
+      <c r="L74" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19" t="s">
+      <c r="N74" s="18"/>
+      <c r="O74" s="18" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A75" s="18" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="20">
         <v>0.8</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="J75" s="19" t="s">
+      <c r="J75" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="L75" s="18" t="s">
+      <c r="L75" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19" t="s">
+      <c r="N75" s="18"/>
+      <c r="O75" s="18" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A76" s="18" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="20">
         <v>0.7</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="L76" s="18" t="s">
+      <c r="L76" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19" t="s">
+      <c r="N76" s="18"/>
+      <c r="O76" s="18" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A77" s="18" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="20">
         <v>0.85</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H77" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="J77" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L77" s="18" t="s">
+      <c r="L77" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19" t="s">
+      <c r="N77" s="18"/>
+      <c r="O77" s="18" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A78" s="18" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="20">
         <v>1</v>
       </c>
-      <c r="H78" s="19" t="s">
+      <c r="H78" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J78" s="19" t="s">
+      <c r="J78" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L78" s="18" t="s">
+      <c r="L78" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19" t="s">
+      <c r="N78" s="18"/>
+      <c r="O78" s="18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A79" s="18" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="20">
         <v>0.85</v>
       </c>
-      <c r="H79" s="19" t="s">
+      <c r="H79" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J79" s="19" t="s">
+      <c r="J79" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="L79" s="18" t="s">
+      <c r="L79" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19" t="s">
+      <c r="N79" s="18"/>
+      <c r="O79" s="18" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A80" s="18" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="20">
         <v>1</v>
       </c>
-      <c r="H80" s="19" t="s">
+      <c r="H80" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="J80" s="19" t="s">
+      <c r="J80" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="L80" s="18" t="s">
+      <c r="L80" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="N80" s="19"/>
-      <c r="O80" s="19" t="s">
+      <c r="N80" s="18"/>
+      <c r="O80" s="18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A81" s="18" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B81" s="20">
+        <v>1</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B82" s="20">
+        <v>1</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="B81" s="21">
+      <c r="B83" s="20">
         <v>1</v>
       </c>
-      <c r="H81" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J81" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L81" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="N81" s="19"/>
-      <c r="O81" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A82" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="B82" s="21">
+      <c r="H83" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B84" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="B85" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="B86" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L86" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="B87" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="B88" s="20">
         <v>1</v>
       </c>
-      <c r="H82" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J82" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="L82" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="N82" s="19"/>
-      <c r="O82" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A83" s="18" t="s">
-        <v>645</v>
-      </c>
-      <c r="B83" s="21">
-        <v>1</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="L83" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A84" s="18" t="s">
-        <v>646</v>
-      </c>
-      <c r="B84" s="21">
+      <c r="H88" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J88" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B89" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="B90" s="20">
         <v>0.65</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="L84" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A85" s="18" t="s">
-        <v>647</v>
-      </c>
-      <c r="B85" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L85" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A86" s="18" t="s">
-        <v>648</v>
-      </c>
-      <c r="B86" s="21">
+      <c r="H90" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J90" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="B91" s="20">
         <v>0.9</v>
       </c>
-      <c r="H86" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="L86" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A87" s="18" t="s">
-        <v>649</v>
-      </c>
-      <c r="B87" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="H87" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L87" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A88" s="18" t="s">
-        <v>650</v>
-      </c>
-      <c r="B88" s="21">
-        <v>1</v>
-      </c>
-      <c r="H88" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J88" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L88" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A89" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="B89" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="H89" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L89" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A90" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="B90" s="21">
-        <v>0.65</v>
-      </c>
-      <c r="H90" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="J90" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L90" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A91" s="18" t="s">
-        <v>651</v>
-      </c>
-      <c r="B91" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="H91" s="19" t="s">
+      <c r="H91" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="J91" s="19" t="s">
+      <c r="J91" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="L91" s="18" t="s">
+      <c r="L91" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19" t="s">
+      <c r="N91" s="18"/>
+      <c r="O91" s="18" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A92" s="18" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="20">
         <v>0.6</v>
       </c>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="J92" s="19" t="s">
+      <c r="J92" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="L92" s="18" t="s">
+      <c r="L92" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19" t="s">
+      <c r="N92" s="18"/>
+      <c r="O92" s="18" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H93" s="19" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H93" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="J93" s="19" t="s">
+      <c r="J93" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="L93" s="18" t="s">
+      <c r="L93" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19" t="s">
+      <c r="N93" s="18"/>
+      <c r="O93" s="18" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H94" s="19" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H94" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="J94" s="19" t="s">
+      <c r="J94" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="L94" s="18" t="s">
+      <c r="L94" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19" t="s">
+      <c r="N94" s="18"/>
+      <c r="O94" s="18" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H95" s="19" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H95" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="J95" s="19" t="s">
+      <c r="J95" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L95" s="18" t="s">
+      <c r="L95" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19" t="s">
+      <c r="N95" s="18"/>
+      <c r="O95" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H96" s="19" t="s">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H96" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="J96" s="19" t="s">
+      <c r="J96" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="L96" s="18" t="s">
+      <c r="L96" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19" t="s">
+      <c r="N96" s="18"/>
+      <c r="O96" s="18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="8:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H97" s="19" t="s">
+    <row r="97" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H97" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="J97" s="19" t="s">
+      <c r="J97" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="L97" s="18" t="s">
+      <c r="L97" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19" t="s">
+      <c r="N97" s="18"/>
+      <c r="O97" s="18" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="98" spans="8:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H98" s="19" t="s">
+    <row r="98" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H98" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="J98" s="19" t="s">
+      <c r="J98" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="L98" s="18" t="s">
+      <c r="L98" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19" t="s">
+      <c r="N98" s="18"/>
+      <c r="O98" s="18" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="99" spans="8:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H99" s="19" t="s">
+    <row r="99" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H99" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="J99" s="19" t="s">
+      <c r="J99" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="L99" s="18" t="s">
+      <c r="L99" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19" t="s">
+      <c r="N99" s="18"/>
+      <c r="O99" s="18" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="8:15" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="H100" s="19" t="s">
+    <row r="100" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H100" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="J100" s="19" t="s">
+      <c r="J100" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="L100" s="18" t="s">
+      <c r="L100" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19" t="s">
+      <c r="N100" s="18"/>
+      <c r="O100" s="18" t="s">
         <v>380</v>
       </c>
     </row>
@@ -7507,4 +7543,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6642E01-712B-4930-914E-BA8E21B3F3DB}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="24" customWidth="1"/>
+    <col min="2" max="7" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>656</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>657</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>